--- a/SI_Resource_S2.xlsx
+++ b/SI_Resource_S2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/simondellicour/GitHub/h5nx_risk_mapping/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/simondellicour/Dropbox/Temp_MBP3/H5Nx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53B34DAB-64BC-284C-88FB-A25327FBFA09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DEEC735-50CB-BD44-AF1F-65A46FBFE160}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{14E19D97-B181-5E44-9A5A-14A1E9B81AA9}"/>
+    <workbookView xWindow="-25600" yWindow="500" windowWidth="25600" windowHeight="19980" xr2:uid="{14E19D97-B181-5E44-9A5A-14A1E9B81AA9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -349,7 +349,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -377,9 +377,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -758,8 +755,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEDFE903-826A-AF48-A52B-84CB2275E4EF}">
   <dimension ref="A1:L98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
-      <selection activeCell="G76" activeCellId="1" sqref="A76:A97 G76:G96"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="G66" sqref="G66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2895,7 +2892,7 @@
       <c r="L76" s="5"/>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A77" s="10" t="s">
+      <c r="A77" s="7" t="s">
         <v>75</v>
       </c>
       <c r="C77" s="5">
@@ -2907,7 +2904,7 @@
       <c r="E77" s="5">
         <v>3</v>
       </c>
-      <c r="G77" s="10" t="s">
+      <c r="G77" s="7" t="s">
         <v>75</v>
       </c>
       <c r="I77" s="5">
@@ -2924,7 +2921,7 @@
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A78" s="10" t="s">
+      <c r="A78" s="7" t="s">
         <v>76</v>
       </c>
       <c r="C78" s="5">
@@ -2936,7 +2933,7 @@
       <c r="E78" s="5">
         <v>22.7</v>
       </c>
-      <c r="G78" s="10" t="s">
+      <c r="G78" s="7" t="s">
         <v>76</v>
       </c>
       <c r="I78" s="5">
@@ -2953,7 +2950,7 @@
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A79" s="10" t="s">
+      <c r="A79" s="7" t="s">
         <v>77</v>
       </c>
       <c r="C79" s="5">
@@ -2965,7 +2962,7 @@
       <c r="E79" s="5">
         <v>12.9</v>
       </c>
-      <c r="G79" s="10" t="s">
+      <c r="G79" s="7" t="s">
         <v>77</v>
       </c>
       <c r="I79" s="5">
@@ -2982,7 +2979,7 @@
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A80" s="10" t="s">
+      <c r="A80" s="7" t="s">
         <v>78</v>
       </c>
       <c r="C80" s="5">
@@ -2994,7 +2991,7 @@
       <c r="E80" s="5">
         <v>36.200000000000003</v>
       </c>
-      <c r="G80" s="10" t="s">
+      <c r="G80" s="7" t="s">
         <v>78</v>
       </c>
       <c r="I80" s="5">
@@ -3011,7 +3008,7 @@
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A81" s="10" t="s">
+      <c r="A81" s="7" t="s">
         <v>6</v>
       </c>
       <c r="C81" s="5">
@@ -3023,7 +3020,7 @@
       <c r="E81" s="5">
         <v>5</v>
       </c>
-      <c r="G81" s="10" t="s">
+      <c r="G81" s="7" t="s">
         <v>6</v>
       </c>
       <c r="I81" s="5">
@@ -3040,7 +3037,7 @@
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A82" s="10" t="s">
+      <c r="A82" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C82" s="5">
@@ -3052,7 +3049,7 @@
       <c r="E82" s="5">
         <v>17.100000000000001</v>
       </c>
-      <c r="G82" s="10" t="s">
+      <c r="G82" s="7" t="s">
         <v>9</v>
       </c>
       <c r="I82" s="5">
@@ -3069,7 +3066,7 @@
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A83" s="10" t="s">
+      <c r="A83" s="7" t="s">
         <v>11</v>
       </c>
       <c r="C83" s="5">
@@ -3081,7 +3078,7 @@
       <c r="E83" s="5">
         <v>3</v>
       </c>
-      <c r="G83" s="10" t="s">
+      <c r="G83" s="7" t="s">
         <v>11</v>
       </c>
       <c r="I83" s="5">
@@ -3106,7 +3103,7 @@
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A85" s="10" t="s">
+      <c r="A85" s="2" t="s">
         <v>75</v>
       </c>
       <c r="C85" s="5">
@@ -3118,7 +3115,7 @@
       <c r="E85" s="5">
         <v>1.5</v>
       </c>
-      <c r="G85" s="10" t="s">
+      <c r="G85" s="7" t="s">
         <v>75</v>
       </c>
       <c r="I85" s="5">
@@ -3135,7 +3132,7 @@
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A86" s="10" t="s">
+      <c r="A86" s="7" t="s">
         <v>76</v>
       </c>
       <c r="C86" s="5">
@@ -3147,7 +3144,7 @@
       <c r="E86" s="5">
         <v>13.8</v>
       </c>
-      <c r="G86" s="10" t="s">
+      <c r="G86" s="2" t="s">
         <v>76</v>
       </c>
       <c r="I86" s="5">
@@ -3164,7 +3161,7 @@
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A87" s="10" t="s">
+      <c r="A87" s="7" t="s">
         <v>77</v>
       </c>
       <c r="C87" s="5">
@@ -3176,7 +3173,7 @@
       <c r="E87" s="5">
         <v>6.9</v>
       </c>
-      <c r="G87" s="10" t="s">
+      <c r="G87" s="7" t="s">
         <v>77</v>
       </c>
       <c r="I87" s="5">
@@ -3193,7 +3190,7 @@
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A88" s="10" t="s">
+      <c r="A88" s="7" t="s">
         <v>78</v>
       </c>
       <c r="C88" s="5">
@@ -3205,7 +3202,7 @@
       <c r="E88" s="5">
         <v>15.9</v>
       </c>
-      <c r="G88" s="10" t="s">
+      <c r="G88" s="7" t="s">
         <v>78</v>
       </c>
       <c r="I88" s="5">
@@ -3222,7 +3219,7 @@
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A89" s="10" t="s">
+      <c r="A89" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C89" s="5">
@@ -3234,7 +3231,7 @@
       <c r="E89" s="5">
         <v>12.8</v>
       </c>
-      <c r="G89" s="10" t="s">
+      <c r="G89" s="7" t="s">
         <v>8</v>
       </c>
       <c r="I89" s="5">
@@ -3251,7 +3248,7 @@
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A90" s="10" t="s">
+      <c r="A90" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C90" s="5">
@@ -3263,7 +3260,7 @@
       <c r="E90" s="5">
         <v>11.9</v>
       </c>
-      <c r="G90" s="10" t="s">
+      <c r="G90" s="7" t="s">
         <v>6</v>
       </c>
       <c r="I90" s="5">
@@ -3280,7 +3277,7 @@
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A91" s="10" t="s">
+      <c r="A91" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C91" s="5">
@@ -3292,7 +3289,7 @@
       <c r="E91" s="5">
         <v>8.1</v>
       </c>
-      <c r="G91" s="10" t="s">
+      <c r="G91" s="2" t="s">
         <v>1</v>
       </c>
       <c r="I91" s="5">
@@ -3309,7 +3306,7 @@
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A92" s="10" t="s">
+      <c r="A92" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C92" s="5">
@@ -3321,7 +3318,7 @@
       <c r="E92" s="5">
         <v>3.9</v>
       </c>
-      <c r="G92" s="10" t="s">
+      <c r="G92" s="2" t="s">
         <v>2</v>
       </c>
       <c r="I92" s="5">
@@ -3338,7 +3335,7 @@
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A93" s="10" t="s">
+      <c r="A93" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C93" s="5">
@@ -3350,7 +3347,7 @@
       <c r="E93" s="5">
         <v>10.7</v>
       </c>
-      <c r="G93" s="10" t="s">
+      <c r="G93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="I93" s="5">
@@ -3367,7 +3364,7 @@
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A94" s="10" t="s">
+      <c r="A94" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C94" s="5">
@@ -3379,7 +3376,7 @@
       <c r="E94" s="5">
         <v>2.7</v>
       </c>
-      <c r="G94" s="10" t="s">
+      <c r="G94" s="7" t="s">
         <v>11</v>
       </c>
       <c r="I94" s="5">
@@ -3396,7 +3393,7 @@
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A95" s="10" t="s">
+      <c r="A95" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C95" s="5">
@@ -3408,7 +3405,7 @@
       <c r="E95" s="5">
         <v>0.6</v>
       </c>
-      <c r="G95" s="10" t="s">
+      <c r="G95" s="2" t="s">
         <v>40</v>
       </c>
       <c r="I95" s="5">
@@ -3425,7 +3422,7 @@
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A96" s="10" t="s">
+      <c r="A96" s="7" t="s">
         <v>43</v>
       </c>
       <c r="C96" s="5">
@@ -3437,7 +3434,7 @@
       <c r="E96" s="5">
         <v>6.8</v>
       </c>
-      <c r="G96" s="10" t="s">
+      <c r="G96" s="7" t="s">
         <v>57</v>
       </c>
       <c r="I96" s="5">
@@ -3454,7 +3451,7 @@
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A97" s="10" t="s">
+      <c r="A97" s="2" t="s">
         <v>61</v>
       </c>
       <c r="C97" s="5">
